--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-18-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-18-ava-matc65.xlsx
@@ -452,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -606,13 +606,13 @@
         <v>220215074</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>220215677</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -734,13 +734,13 @@
         <v>219118723</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -798,13 +798,13 @@
         <v>220120072</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -830,7 +830,7 @@
         <v>221118106</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1092,25 +1092,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1118,19 +1118,19 @@
         <v>216120656</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1150,16 +1150,16 @@
         <v>220215670</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1735,22 +1735,22 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1764,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1872,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1956,25 +1956,25 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
